--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82397524-FE78-43B1-BC10-7AD67C238B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Blad1" sheetId="1" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
-    <t>Oranos - 2 TC 9 vill (+ Heroic)- Defiance</t>
-  </si>
-  <si>
     <t>Archaic</t>
   </si>
   <si>
@@ -24,18 +30,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 0 / 3</t>
     </r>
@@ -46,26 +52,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">2 / 0 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 3</t>
     </r>
@@ -76,35 +82,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>4</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 0 / 1</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>/ 3</t>
     </r>
@@ -118,26 +124,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">4 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 1 / 3</t>
     </r>
@@ -148,26 +154,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">4 / 2 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>2</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 3</t>
     </r>
@@ -178,26 +184,26 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">4 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 2 / 3</t>
     </r>
@@ -211,19 +217,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">1 / 4 / 4 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3</t>
     </r>
@@ -231,18 +236,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
+        <sz val="11"/>
         <color rgb="FF0000FF"/>
-        <sz val="11.0"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Villager transition:
 2 Food to Gold
@@ -256,28 +261,27 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">3 / 2 / 1 / 4 </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">+ </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>3 build TC</t>
     </r>
@@ -294,37 +298,35 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 2 / 1 / </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>5</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> + 3 build TC</t>
     </r>
@@ -332,19 +334,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>8</t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b val="0"/>
-        <color rgb="FF000000"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> / 2 / 1 / 5 </t>
     </r>
@@ -356,18 +357,18 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve">Once second TC is build: </t>
     </r>
     <r>
       <rPr>
-        <rFont val="Arial"/>
-        <b/>
-        <color theme="1"/>
-        <sz val="11.0"/>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
       </rPr>
       <t>Make Manors when needed</t>
     </r>
@@ -417,90 +418,106 @@
   </si>
   <si>
     <t>Advance Heroic (8.15)</t>
+  </si>
+  <si>
+    <t>2 TC 9 vill (+ Heroic)- By Defiance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="13">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -509,7 +526,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -525,69 +542,56 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -777,255 +781,276 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="32.25"/>
-    <col customWidth="1" min="2" max="2" width="50.5"/>
-    <col customWidth="1" min="3" max="3" width="62.63"/>
-    <col customWidth="1" min="4" max="4" width="50.0"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="B9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="4"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="1"/>
+      <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="8" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="D19" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="13" t="s">
+      <c r="B20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D20" s="14" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="13" t="s">
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="13" t="s">
+      <c r="B22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="13" t="s">
+      <c r="B23" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="13" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>41</v>
-      </c>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A24:D24"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A24:D24"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82397524-FE78-43B1-BC10-7AD67C238B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1676C08B-892C-4202-8886-82E975AB48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>Archaic</t>
   </si>
@@ -421,13 +421,16 @@
   </si>
   <si>
     <t>2 TC 9 vill (+ Heroic)- By Defiance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mqbXcVfWzFM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -519,6 +522,14 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -550,10 +561,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -573,8 +585,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -791,10 +805,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1042,6 +1056,11 @@
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="15" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A24:D24"/>
@@ -1051,6 +1070,9 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A18:B18"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A25" r:id="rId1" tooltip="https://www.youtube.com/watch?v=mqbXcVfWzFM&amp;t=&amp;ab_channel=DeitiesofDeath" xr:uid="{08185C16-46C8-4AD6-BEAE-3F27D309652A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1676C08B-892C-4202-8886-82E975AB48B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CD23B-C875-45CE-96F6-6CAA60C6343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -420,10 +420,10 @@
     <t>Advance Heroic (8.15)</t>
   </si>
   <si>
-    <t>2 TC 9 vill (+ Heroic)- By Defiance</t>
-  </si>
-  <si>
     <t>https://www.youtube.com/watch?v=mqbXcVfWzFM&amp;t=&amp;ab_channel=DeitiesofDeath</t>
+  </si>
+  <si>
+    <t>OUTDATED - 2 TC 9 vill (+ Heroic)- By Defiance</t>
   </si>
 </sst>
 </file>
@@ -577,6 +577,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -585,7 +586,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -808,7 +808,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -820,20 +820,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
+      <c r="A1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
     </row>
     <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -908,12 +908,12 @@
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
     </row>
     <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
@@ -934,12 +934,12 @@
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
     </row>
     <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -982,10 +982,10 @@
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12"/>
+      <c r="B18" s="13"/>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1049,16 +1049,16 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15" t="s">
-        <v>42</v>
+      <c r="A25" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645CD23B-C875-45CE-96F6-6CAA60C6343C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D5443F-EAAE-4069-AA5C-D93BDD9AF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
+    <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
+    <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
+    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
+    <sheet name="Blad1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>Archaic</t>
   </si>
@@ -424,17 +428,965 @@
   </si>
   <si>
     <t>OUTDATED - 2 TC 9 vill (+ Heroic)- By Defiance</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 0 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Third Vill builds Manor then goes to: Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1 Vill to Gold</t>
+  </si>
+  <si>
+    <t>Promote both Food Vills to Heros as soon as 4 Favor is gathered</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Gold Vill builds Temple as soon as you get 150 Wood/ 150 Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 1 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>1 to Food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>5 /</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> / 1 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Stop Auto Queue at 2:35 - Advance Age as Prometheus</t>
+  </si>
+  <si>
+    <t>Note: Make sure to kill all hunt to prevent idle time on TC</t>
+  </si>
+  <si>
+    <t>Advance - Prometheus (3.03)</t>
+  </si>
+  <si>
+    <t>Auto-Queue Vills again</t>
+  </si>
+  <si>
+    <t>Move 1 non Heros Vills from Food to Wood</t>
+  </si>
+  <si>
+    <t>Use your current Wood Vill to build Eco Guild</t>
+  </si>
+  <si>
+    <t>Move 1 non Heros Vill from Food to Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pre-Queue </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hand Axe</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Pick Axe</t>
+    </r>
+  </si>
+  <si>
+    <t>Classical (4.03)</t>
+  </si>
+  <si>
+    <t>3 / 2 / 2 / 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Research </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theft of Fire</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on Oracle to grab Relics</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Valor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on Vills for a huge Eco Boom with </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Theft of Fire</t>
+    </r>
+  </si>
+  <si>
+    <t>2 / 3 / 3 / 3</t>
+  </si>
+  <si>
+    <t>If you want a fast 2 TC you can move non Hero Vill from Food to Gold</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 / </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Inherit"/>
+      </rPr>
+      <t xml:space="preserve"> / 3 / 3</t>
+    </r>
+  </si>
+  <si>
+    <t>Next Vill to: Wood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Valor</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on Wood Vill</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Use Gold Vills to build 2 TC on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5.03</t>
+    </r>
+  </si>
+  <si>
+    <t>Hero Citizens - By Rokko</t>
+  </si>
+  <si>
+    <t>Food / Wood / Gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills are splitted: 1 build the dock the other goes to wood</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food (the one who made the dock goes to wood)  - AQ ship on the dock – if you are playing Kronos you can consider sending 1 oracle to have vision on use decontruction on the enemy dock to slow down his eco</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to wood – make a manor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to gold</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food – around 2 minutes and 50 seconds you should have enough gold to make a temple. Stop the ship AQ if necessary to build a temple with your gold vill.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/3/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to food – Restart the AQ ship production (you normally want to get to 8-9 food ship</t>
+  </si>
+  <si>
+    <r>
+      <t>4/3/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Click advance - Oceanus (3.30)</t>
+  </si>
+  <si>
+    <t>Redistribute your vill accordingly:</t>
+  </si>
+  <si>
+    <t>0/5/3</t>
+  </si>
+  <si>
+    <t>Send a vill to make your second dock (if medit) or build even a third dock on the opposite side (if anatolia)</t>
+  </si>
+  <si>
+    <t>You food income is entirely from water to you better not lose it!</t>
+  </si>
+  <si>
+    <t>Build the second manor with a gold vill during the aging up</t>
+  </si>
+  <si>
+    <t>As soon as you get to classical age be ready to pump on water!</t>
+  </si>
+  <si>
+    <r>
+      <t>0/0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to gold</t>
+  </si>
+  <si>
+    <t>Spread your oracles, make sure to move them as soon as they have max vision in order to explore as much map as possible quickly</t>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0/2</t>
+    </r>
+  </si>
+  <si>
+    <t>Build a temple with 1 of your vill at gold, keep mining with the other one (you need 60 gold left: 25 for the manor – 45 to promote an oracle to hero)</t>
+  </si>
+  <si>
+    <t>2/1/1</t>
+  </si>
+  <si>
+    <t>The vill who made the temple goes to wood now (need wood for the manor)</t>
+  </si>
+  <si>
+    <r>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>0</t>
+    </r>
+  </si>
+  <si>
+    <t>Use the gold to promote an oracle to hero as soon as you discover a relic. Make a manor with the gold vill as soon as you can then he can go to food.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/0</t>
+    </r>
+  </si>
+  <si>
+    <t>You can move to food even the vill that's working on wood if needed</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/0</t>
+    </r>
+  </si>
+  <si>
+    <t>You advance through Oceanus past this vill</t>
+  </si>
+  <si>
+    <t>Make sure to collect as many relics as you find!</t>
+  </si>
+  <si>
+    <t>Click advance - Oceanus (3.00)</t>
+  </si>
+  <si>
+    <t>Redistribute your vill according to what you want to do:</t>
+  </si>
+  <si>
+    <t>1/4/3</t>
+  </si>
+  <si>
+    <t>If you want to go for a fast second towncenter</t>
+  </si>
+  <si>
+    <t>3/3/2</t>
+  </si>
+  <si>
+    <t>If you want to go for a standard classical fight (1 rax – 1 crax)</t>
+  </si>
+  <si>
+    <t>4/2/2</t>
+  </si>
+  <si>
+    <t>If you want to go for double rax opening</t>
+  </si>
+  <si>
+    <t>Make sure to save your heroized oracle to help you defending against early harras such as Greek pressure and Valk harras.</t>
+  </si>
+  <si>
+    <t>Fast temple - fast relic - by Avely</t>
+  </si>
+  <si>
+    <t>archaic</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/0/0</t>
+    </r>
+  </si>
+  <si>
+    <t>Initial 2 vills to food</t>
+  </si>
+  <si>
+    <r>
+      <t>2/0/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Next vill to wood</t>
+  </si>
+  <si>
+    <t>Make a manor (consider possible safety retrieve spot for your vill in case of rush)</t>
+  </si>
+  <si>
+    <r>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Make the temple with the gold vill</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial1"/>
+      </rPr>
+      <t>/1/1</t>
+    </r>
+  </si>
+  <si>
+    <t>Consider promoting an oracle to hero if you find a worth relic</t>
+  </si>
+  <si>
+    <t>Standard Kronos/Ora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Ora/Kronos water </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="[$-410]General"/>
+    <numFmt numFmtId="165" formatCode="[$€-410]&quot; &quot;#,##0.00;[Red]&quot;-&quot;[$€-410]&quot; &quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -530,6 +1482,148 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Black1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -561,14 +1655,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -577,19 +1681,74 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="49" fontId="36" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="35" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="38" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="164" fontId="37" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="38" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
+    <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{1E964D8A-50E3-4121-B4FE-FF6AF441516A}"/>
+    <cellStyle name="Excel Built-in Normal" xfId="4" xr:uid="{FE6A0349-E29B-41D7-87DA-A58EDCDAF234}"/>
+    <cellStyle name="Heading" xfId="5" xr:uid="{18470D61-5FCE-47C2-A0A3-FB5BFD7459C6}"/>
+    <cellStyle name="Heading1" xfId="6" xr:uid="{FA90D152-C336-4FEB-8840-0045ACA31B83}"/>
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{7FDC47F1-6826-4652-909A-88918993073D}"/>
+    <cellStyle name="Result" xfId="7" xr:uid="{06E8B695-4279-4153-9FAA-0F81767F9A5C}"/>
+    <cellStyle name="Result2" xfId="8" xr:uid="{AA71AFE9-3798-4889-8833-FFC1BD2D3E0D}"/>
+    <cellStyle name="Result2 2" xfId="9" xr:uid="{46A6A86E-511A-465C-AC45-C2258A3DAAFF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -801,17 +1960,874 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D0EC559-FD78-4F70-94A2-6BF7D2F10505}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="4" max="4" width="61.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75">
+      <c r="C19" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="11"/>
+      <c r="C20" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="14"/>
+    </row>
+    <row r="21" spans="1:4" ht="12.75">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4" ht="15">
+      <c r="A22" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15">
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="14" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75">
+      <c r="A25" s="18"/>
+    </row>
+    <row r="26" spans="1:4" ht="15">
+      <c r="A26" s="17"/>
+    </row>
+    <row r="27" spans="1:4" ht="12.75">
+      <c r="A27" s="18"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A21:D21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E0169-6E3D-427D-907F-7E30692421AD}">
+  <dimension ref="A1:D18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M30" sqref="M30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="18">
+      <c r="A1" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" ht="18">
+      <c r="A2" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="B17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB90B0-B3ED-4C9C-8E92-C154A44269E5}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="14.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75">
+      <c r="A11" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+    </row>
+    <row r="12" spans="1:4" ht="14.25">
+      <c r="A12" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
+      <c r="A14" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="2:4" ht="14.25">
+      <c r="B17" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A11:D11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2ED088-6EC0-4383-903B-0AF9CBB89124}">
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:4" ht="22.5">
+      <c r="A1" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="14.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
+      <c r="A3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="21"/>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+    </row>
+    <row r="13" spans="1:4" ht="14.25">
+      <c r="A13" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:4" ht="15">
+      <c r="A14" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:4" ht="14.25">
+      <c r="A15" s="23"/>
+      <c r="B15" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:4" ht="14.25">
+      <c r="A16" s="23"/>
+      <c r="B16" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:4" ht="14.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:4" ht="14.25">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:4" ht="14.25">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+    </row>
+    <row r="20" spans="1:4" ht="14.25">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:4" ht="14.25">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:4" ht="14.25">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:4" ht="14.25">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:4" ht="14.25">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:4" ht="14.25">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:4" ht="14.25">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:4" ht="15">
+      <c r="A27" s="24"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+    </row>
+    <row r="28" spans="1:4" ht="15">
+      <c r="A28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+    </row>
+    <row r="29" spans="1:4" ht="15">
+      <c r="A29" s="22"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+    </row>
+    <row r="30" spans="1:4" ht="14.25">
+      <c r="A30" s="23"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+    </row>
+    <row r="31" spans="1:4" ht="14.25">
+      <c r="A31" s="23"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="32.28515625" customWidth="1"/>
     <col min="2" max="2" width="50.42578125" customWidth="1"/>
@@ -819,23 +2835,23 @@
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:4" ht="19.5" customHeight="1">
+      <c r="A1" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+    </row>
+    <row r="3" spans="1:4" ht="14.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -843,7 +2859,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -853,7 +2869,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -863,7 +2879,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="15">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -875,7 +2891,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="15">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -885,7 +2901,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="15">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +2913,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="15">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -907,15 +2923,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:4">
+      <c r="A10" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+    </row>
+    <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -923,7 +2939,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -933,15 +2949,15 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+    <row r="13" spans="1:4">
+      <c r="A13" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+    </row>
+    <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -949,7 +2965,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="15">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -961,7 +2977,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="15">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -971,7 +2987,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" ht="15">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -981,11 +2997,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:4" ht="15">
+      <c r="A18" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13"/>
+      <c r="B18" s="31"/>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
@@ -993,7 +3009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="15">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -1007,7 +3023,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" ht="15">
       <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
@@ -1021,7 +3037,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="14.25">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -1032,7 +3048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="12.75">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -1040,7 +3056,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="12.75">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1048,15 +3064,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+    <row r="24" spans="1:4">
+      <c r="A24" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
         <v>41</v>
       </c>

--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D5443F-EAAE-4069-AA5C-D93BDD9AF564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F8085-938F-445E-A4F2-62CCC011EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
     <sheet name="Feuil3" sheetId="4" r:id="rId2"/>
     <sheet name="Feuil4" sheetId="5" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="3" r:id="rId4"/>
+    <sheet name="Feuil5" sheetId="6" r:id="rId4"/>
     <sheet name="Blad1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -1354,10 +1354,10 @@
     <t>Consider promoting an oracle to hero if you find a worth relic</t>
   </si>
   <si>
-    <t>Standard Kronos/Ora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Standard Ora/Kronos water </t>
+    <t>Standard Kronos/Ora - By Narcotic</t>
+  </si>
+  <si>
+    <t>Standard Ora/Kronos water - By Narcotic</t>
   </si>
 </sst>
 </file>
@@ -1671,7 +1671,7 @@
     <xf numFmtId="165" fontId="33" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1715,28 +1715,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="38" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="37" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="34" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="2" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="38" fillId="2" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Excel Built-in Hyperlink" xfId="3" xr:uid="{1E964D8A-50E3-4121-B4FE-FF6AF441516A}"/>
@@ -1967,31 +1966,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
-    <col min="4" max="4" width="61.140625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
+    <col min="4" max="4" width="61.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1999,7 +1998,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="12" t="s">
         <v>43</v>
       </c>
@@ -2009,7 +2008,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="12" t="s">
         <v>44</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="C5" s="13"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="12" t="s">
         <v>46</v>
       </c>
@@ -2031,7 +2030,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="12" t="s">
         <v>49</v>
       </c>
@@ -2043,7 +2042,7 @@
       </c>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="12" t="s">
         <v>51</v>
       </c>
@@ -2053,7 +2052,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="12" t="s">
         <v>53</v>
       </c>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="14" t="s">
@@ -2073,28 +2072,28 @@
       </c>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="14.25">
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:4" ht="15.6">
+      <c r="A12" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="13" t="s">
@@ -2104,7 +2103,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="13" t="s">
@@ -2114,15 +2113,15 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="35" t="s">
+    <row r="16" spans="1:4" ht="15.6">
+      <c r="A16" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-    </row>
-    <row r="17" spans="1:4" ht="14.25">
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="1" t="s">
         <v>1</v>
       </c>
@@ -2137,7 +2136,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="19" spans="1:4" ht="12.75">
+    <row r="19" spans="1:4" ht="13.2">
       <c r="C19" s="16" t="s">
         <v>65</v>
       </c>
@@ -2149,11 +2148,11 @@
       </c>
       <c r="D20" s="14"/>
     </row>
-    <row r="21" spans="1:4" ht="12.75">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
+    <row r="21" spans="1:4" ht="13.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
     </row>
     <row r="22" spans="1:4" ht="15">
       <c r="A22" s="15" t="s">
@@ -2163,7 +2162,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="15.6">
       <c r="A23" s="15" t="s">
         <v>69</v>
       </c>
@@ -2181,13 +2180,13 @@
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="12.75">
+    <row r="25" spans="1:4" ht="13.2">
       <c r="A25" s="18"/>
     </row>
     <row r="26" spans="1:4" ht="15">
       <c r="A26" s="17"/>
     </row>
-    <row r="27" spans="1:4" ht="12.75">
+    <row r="27" spans="1:4" ht="13.2">
       <c r="A27" s="18"/>
     </row>
     <row r="28" spans="1:4" ht="15">
@@ -2209,21 +2208,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94E0169-6E3D-427D-907F-7E30692421AD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:4" ht="17.399999999999999">
+      <c r="A1" s="32" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-    </row>
-    <row r="2" spans="1:4" ht="18">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="2" spans="1:4" ht="17.399999999999999">
       <c r="A2" s="25" t="s">
         <v>121</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="C2" s="25"/>
       <c r="D2" s="25"/>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
@@ -2239,7 +2238,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="20" t="s">
         <v>97</v>
       </c>
@@ -2251,7 +2250,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="24" t="s">
         <v>100</v>
       </c>
@@ -2263,7 +2262,7 @@
       </c>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="22" t="s">
         <v>102</v>
       </c>
@@ -2275,7 +2274,7 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="22" t="s">
         <v>104</v>
       </c>
@@ -2287,7 +2286,7 @@
       </c>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="23" t="s">
         <v>106</v>
       </c>
@@ -2299,7 +2298,7 @@
       </c>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="23" t="s">
         <v>108</v>
       </c>
@@ -2313,21 +2312,21 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="19" t="s">
         <v>112</v>
       </c>
@@ -2335,7 +2334,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="23" t="s">
         <v>113</v>
       </c>
@@ -2345,7 +2344,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="23" t="s">
         <v>115</v>
       </c>
@@ -2355,7 +2354,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="23" t="s">
         <v>117</v>
       </c>
@@ -2365,20 +2364,20 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="B17" s="19" t="s">
         <v>119</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
@@ -2397,9 +2396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB90B0-B3ED-4C9C-8E92-C154A44269E5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
@@ -2411,7 +2410,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="14.25">
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="20" t="s">
         <v>74</v>
       </c>
@@ -2419,7 +2418,7 @@
       <c r="C3" s="21"/>
       <c r="D3" s="21"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="22" t="s">
         <v>122</v>
       </c>
@@ -2431,7 +2430,7 @@
       </c>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="23" t="s">
         <v>124</v>
       </c>
@@ -2441,7 +2440,7 @@
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="22" t="s">
         <v>125</v>
       </c>
@@ -2453,7 +2452,7 @@
       </c>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="22" t="s">
         <v>128</v>
       </c>
@@ -2463,7 +2462,7 @@
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="23" t="s">
         <v>129</v>
       </c>
@@ -2475,7 +2474,7 @@
       </c>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="23" t="s">
         <v>131</v>
       </c>
@@ -2487,21 +2486,21 @@
       </c>
       <c r="D9" s="21"/>
     </row>
-    <row r="10" spans="1:4" ht="14.25">
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="19"/>
       <c r="B10" s="21"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15.75">
-      <c r="A11" s="27" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="19" t="s">
         <v>112</v>
       </c>
@@ -2509,7 +2508,7 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:4" ht="14.25">
+    <row r="13" spans="1:4" ht="13.8">
       <c r="A13" s="23" t="s">
         <v>113</v>
       </c>
@@ -2519,7 +2518,7 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="14.25">
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="23" t="s">
         <v>115</v>
       </c>
@@ -2529,7 +2528,7 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="23" t="s">
         <v>117</v>
       </c>
@@ -2539,13 +2538,13 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="19"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="2:4" ht="14.25">
+    <row r="17" spans="2:4" ht="13.8">
       <c r="B17" s="19" t="s">
         <v>119</v>
       </c>
@@ -2561,256 +2560,249 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E2ED088-6EC0-4383-903B-0AF9CBB89124}">
-  <dimension ref="A1:D31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E66BCD1-995E-4241-9AC0-51C2F48588D2}">
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:4" ht="21">
+      <c r="A1" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-    </row>
-    <row r="2" spans="1:4" ht="14.25">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
-      <c r="A3" s="20" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" ht="13.8">
+      <c r="A2" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
+      <c r="A3" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>76</v>
+      </c>
       <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-    </row>
-    <row r="4" spans="1:4" ht="15">
-      <c r="A4" s="22" t="s">
-        <v>75</v>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="13.8">
+      <c r="A4" s="23" t="s">
+        <v>77</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C4" s="21"/>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="15">
+      <c r="D4" s="21"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="21"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="23" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="21"/>
       <c r="D6" s="21"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="23" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="23" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>86</v>
+      </c>
+      <c r="C8" s="19"/>
       <c r="D8" s="21"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
-    </row>
-    <row r="10" spans="1:4" ht="15">
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" ht="13.8">
       <c r="A10" s="23" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
-      <c r="A11" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75">
-      <c r="A12" s="27" t="s">
+    <row r="11" spans="1:4" ht="15.6">
+      <c r="A11" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-    </row>
-    <row r="13" spans="1:4" ht="14.25">
-      <c r="A13" s="19" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="13.8">
+      <c r="A12" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:4" ht="13.8">
+      <c r="A13" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>93</v>
+      </c>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
-      <c r="A14" s="22" t="s">
-        <v>92</v>
-      </c>
+    <row r="14" spans="1:4" ht="13.8">
+      <c r="A14" s="23"/>
       <c r="B14" s="21" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:4" ht="14.25">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="23"/>
       <c r="B15" s="21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:4" ht="14.25">
-      <c r="A16" s="23"/>
-      <c r="B16" s="21" t="s">
-        <v>95</v>
+    <row r="16" spans="1:4" ht="13.8">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19" t="s">
+        <v>96</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:4" ht="14.25">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="19"/>
-      <c r="B17" s="19" t="s">
-        <v>96</v>
-      </c>
+      <c r="B17" s="19"/>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:4" ht="14.25">
+    <row r="18" spans="1:4" ht="13.8">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:4" ht="14.25">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="19"/>
       <c r="B19" s="19"/>
       <c r="C19" s="19"/>
       <c r="D19" s="19"/>
     </row>
-    <row r="20" spans="1:4" ht="14.25">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="19"/>
       <c r="B20" s="19"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="19"/>
       <c r="B21" s="19"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:4" ht="14.25">
+    <row r="22" spans="1:4" ht="13.8">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4" ht="14.25">
+    <row r="23" spans="1:4" ht="13.8">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
       <c r="C23" s="19"/>
       <c r="D23" s="19"/>
     </row>
-    <row r="24" spans="1:4" ht="14.25">
+    <row r="24" spans="1:4" ht="13.8">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:4" ht="14.25">
+    <row r="25" spans="1:4" ht="13.8">
       <c r="A25" s="19"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:4" ht="14.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-    </row>
-    <row r="27" spans="1:4" ht="15">
-      <c r="A27" s="24"/>
+    <row r="26" spans="1:4" ht="13.8">
+      <c r="A26" s="24"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="13.8">
+      <c r="A27" s="22"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="13.8">
       <c r="A28" s="22"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
-      <c r="A29" s="22"/>
+    <row r="29" spans="1:4" ht="13.8">
+      <c r="A29" s="23"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
     </row>
-    <row r="30" spans="1:4" ht="14.25">
+    <row r="30" spans="1:4" ht="13.8">
       <c r="A30" s="23"/>
       <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
+      <c r="C30" s="19"/>
       <c r="D30" s="21"/>
     </row>
-    <row r="31" spans="1:4" ht="14.25">
-      <c r="A31" s="23"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="21"/>
-    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2827,31 +2819,31 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" customWidth="1"/>
-    <col min="3" max="3" width="62.5703125" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
+    <col min="2" max="2" width="50.44140625" customWidth="1"/>
+    <col min="3" max="3" width="62.5546875" customWidth="1"/>
     <col min="4" max="4" width="50" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19.5" customHeight="1">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="30" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-    </row>
-    <row r="3" spans="1:4" ht="14.25">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" ht="13.8">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2859,7 +2851,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" ht="15">
+    <row r="4" spans="1:4" ht="13.8">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2869,7 +2861,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="13.8">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -2879,7 +2871,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="13.8">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -2891,7 +2883,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="13.8">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -2901,7 +2893,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="13.8">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -2913,7 +2905,7 @@
       </c>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="13.8">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -2923,15 +2915,15 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:4" ht="15.6">
+      <c r="A10" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-    </row>
-    <row r="11" spans="1:4" ht="14.25">
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+    </row>
+    <row r="11" spans="1:4" ht="13.8">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -2939,7 +2931,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="13.8">
       <c r="A12" s="2" t="s">
         <v>16</v>
       </c>
@@ -2949,15 +2941,15 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:4" ht="15.6">
+      <c r="A13" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-    </row>
-    <row r="14" spans="1:4" ht="14.25">
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+    </row>
+    <row r="14" spans="1:4" ht="13.8">
       <c r="A14" s="1" t="s">
         <v>1</v>
       </c>
@@ -2965,7 +2957,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="13.8">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -2977,7 +2969,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="13.8">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
@@ -2987,7 +2979,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="13.8">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
@@ -2997,11 +2989,11 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
-      <c r="A18" s="33" t="s">
+    <row r="18" spans="1:4" ht="13.8">
+      <c r="A18" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="28"/>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
@@ -3009,7 +3001,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="13.8">
       <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
@@ -3023,7 +3015,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="13.8">
       <c r="A20" s="9" t="s">
         <v>31</v>
       </c>
@@ -3037,7 +3029,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="14.25">
+    <row r="21" spans="1:4" ht="13.8">
       <c r="A21" s="9" t="s">
         <v>7</v>
       </c>
@@ -3048,7 +3040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="12.75">
+    <row r="22" spans="1:4" ht="13.2">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
@@ -3056,7 +3048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="12.75">
+    <row r="23" spans="1:4" ht="13.2">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
@@ -3064,13 +3056,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:4" ht="15.6">
+      <c r="A24" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">

--- a/dist/assets/BOs/Oranos.xlsx
+++ b/dist/assets/BOs/Oranos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10F8085-938F-445E-A4F2-62CCC011EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B0B4593-86F3-4F2B-9F88-740F78CE5A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="2" r:id="rId1"/>
@@ -1354,10 +1354,10 @@
     <t>Consider promoting an oracle to hero if you find a worth relic</t>
   </si>
   <si>
-    <t>Standard Kronos/Ora - By Narcotic</t>
-  </si>
-  <si>
-    <t>Standard Ora/Kronos water - By Narcotic</t>
+    <t>Standard Kronos/Ora - By Kvoth</t>
+  </si>
+  <si>
+    <t>Standard Ora/Kronos water - By Kvoth</t>
   </si>
 </sst>
 </file>
@@ -2396,7 +2396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACB90B0-B3ED-4C9C-8E92-C154A44269E5}">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
   <sheetData>
@@ -2563,7 +2563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E66BCD1-995E-4241-9AC0-51C2F48588D2}">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
